--- a/BackTest/2020-01-16 BackTest LINK.xlsx
+++ b/BackTest/2020-01-16 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>82481.65204237806</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>81041.64734237806</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>78948.90874237806</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -552,9 +552,15 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>2652</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -585,9 +591,15 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>2628</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -618,9 +630,15 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>2613</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +667,17 @@
         <v>76162.43843294054</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2550</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +706,17 @@
         <v>74082.21723294054</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2576</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +745,17 @@
         <v>69516.38783294054</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2563</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +784,17 @@
         <v>70311.40533294054</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2553</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +823,17 @@
         <v>72350.44453294054</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2561</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +862,17 @@
         <v>73371.14203294054</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2568</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +901,17 @@
         <v>70889.41133294054</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2581</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +940,17 @@
         <v>70889.41133294054</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2570</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +979,17 @@
         <v>72738.51013294054</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2570</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1018,17 @@
         <v>74677.17843294055</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2600</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,7 +1057,7 @@
         <v>77683.29454435625</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>2633</v>
@@ -987,7 +1065,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1018,11 +1096,9 @@
         <v>75032.64472843765</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1168,7 +1244,7 @@
         <v>55932.53712869032</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1279,7 +1355,7 @@
         <v>56884.61662869033</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1316,7 +1392,7 @@
         <v>55066.95581176255</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -7310,11 +7386,9 @@
         <v>70090.99770408738</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7349,11 +7423,9 @@
         <v>70090.99770408738</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7388,11 +7460,9 @@
         <v>69982.91010408738</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>2597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7427,11 +7497,9 @@
         <v>70103.94270408739</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>2595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7466,11 +7534,9 @@
         <v>70060.37200408739</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2604</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7505,11 +7571,9 @@
         <v>70060.0817040874</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>2592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7544,11 +7608,9 @@
         <v>70060.0817040874</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7620,11 +7682,9 @@
         <v>70272.09570408739</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -10212,11 +10272,9 @@
         <v>73734.74687988595</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10325,11 +10383,9 @@
         <v>73354.86377988594</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -13768,11 +13824,9 @@
         <v>50371.86118363417</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>2587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13844,11 +13898,9 @@
         <v>55161.03978363417</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>2606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -18878,16 +18930,18 @@
         <v>152705.684638693</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L501" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -18913,11 +18967,15 @@
         <v>152162.165238693</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18946,11 +19004,15 @@
         <v>151798.909538693</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18979,11 +19041,15 @@
         <v>151884.553238693</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19012,11 +19078,15 @@
         <v>153177.485138693</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19045,11 +19115,15 @@
         <v>155618.338838693</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19078,11 +19152,15 @@
         <v>158022.2355206384</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19111,11 +19189,15 @@
         <v>158354.1264206384</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19144,11 +19226,15 @@
         <v>156448.7638206384</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19177,11 +19263,15 @@
         <v>156448.7638206384</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19210,11 +19300,15 @@
         <v>159477.0016206384</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19243,11 +19337,15 @@
         <v>157903.9710206384</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19276,11 +19374,15 @@
         <v>156475.3068206384</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19309,11 +19411,15 @@
         <v>154183.9500206384</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19342,11 +19448,15 @@
         <v>153429.0225206384</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19375,11 +19485,15 @@
         <v>153599.4706206385</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19408,11 +19522,15 @@
         <v>156077.3084206385</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19445,7 +19563,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19478,7 +19600,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19511,7 +19637,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19544,7 +19674,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19573,11 +19707,15 @@
         <v>154728.2991206385</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19610,7 +19748,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19639,14 +19781,16 @@
         <v>157697.9713206385</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="inlineStr"/>
     </row>
     <row r="525">
@@ -19672,7 +19816,7 @@
         <v>153551.3024206385</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19705,7 +19849,7 @@
         <v>156376.2204206385</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19738,7 +19882,7 @@
         <v>161541.1653206385</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19771,7 +19915,7 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19804,7 +19948,7 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19837,7 +19981,7 @@
         <v>167084.3661762919</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19870,7 +20014,7 @@
         <v>161979.7554762919</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19969,7 +20113,7 @@
         <v>162083.1910762919</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20464,7 +20608,7 @@
         <v>152148.1908046913</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20596,7 +20740,7 @@
         <v>158912.068639552</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21157,7 +21301,7 @@
         <v>125812.7226219247</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21190,7 +21334,7 @@
         <v>120701.8733219247</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21223,7 +21367,7 @@
         <v>115219.5960219247</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21256,7 +21400,7 @@
         <v>110278.2082219247</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21289,7 +21433,7 @@
         <v>118348.4626219247</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21322,7 +21466,7 @@
         <v>117740.6879219247</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21355,7 +21499,7 @@
         <v>120552.7083219247</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21388,7 +21532,7 @@
         <v>120512.5860219247</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21421,7 +21565,7 @@
         <v>120236.7335219247</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21454,7 +21598,7 @@
         <v>121142.7107219247</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21487,7 +21631,7 @@
         <v>120544.0517219247</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21520,7 +21664,7 @@
         <v>120048.2510219247</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21553,7 +21697,7 @@
         <v>120056.7438219247</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21586,7 +21730,7 @@
         <v>120007.7438219247</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21619,7 +21763,7 @@
         <v>120007.7438219247</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21652,7 +21796,7 @@
         <v>118704.9360219247</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21685,7 +21829,7 @@
         <v>120682.0524219247</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21718,7 +21862,7 @@
         <v>118793.7325219247</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21751,7 +21895,7 @@
         <v>118537.3254219247</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21784,7 +21928,7 @@
         <v>118288.3310219247</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21817,7 +21961,7 @@
         <v>117954.9626219247</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21883,7 +22027,7 @@
         <v>107540.0887219247</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21916,7 +22060,7 @@
         <v>109674.0364219247</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21949,7 +22093,7 @@
         <v>110794.3798219247</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22081,7 +22225,7 @@
         <v>117789.6588219247</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -28021,7 +28165,7 @@
         <v>119141.2932119192</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28087,7 +28231,7 @@
         <v>118580.6856759456</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28120,7 +28264,7 @@
         <v>121002.8410383733</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28153,7 +28297,7 @@
         <v>119538.2758383733</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28186,7 +28330,7 @@
         <v>123868.6040383733</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28219,7 +28363,7 @@
         <v>123798.7700383733</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28252,7 +28396,7 @@
         <v>124604.5027383733</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28285,7 +28429,7 @@
         <v>124272.4934383733</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28318,7 +28462,7 @@
         <v>124668.1745383733</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28351,7 +28495,7 @@
         <v>125191.3664383733</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28384,7 +28528,7 @@
         <v>127781.4913383733</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28417,7 +28561,7 @@
         <v>127781.4913383733</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28450,7 +28594,7 @@
         <v>128576.3958383733</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28483,7 +28627,7 @@
         <v>129692.7376383733</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28516,7 +28660,7 @@
         <v>130171.7376383733</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28549,7 +28693,7 @@
         <v>129104.8348383733</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28582,7 +28726,7 @@
         <v>130106.8351988636</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28615,7 +28759,7 @@
         <v>129104.8351988636</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28681,7 +28825,7 @@
         <v>128338.3926435483</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28747,7 +28891,7 @@
         <v>128300.3623435483</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28879,7 +29023,7 @@
         <v>132021.3451435483</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29044,7 +29188,7 @@
         <v>131623.2476435483</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29077,7 +29221,7 @@
         <v>132133.8337435483</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29110,7 +29254,7 @@
         <v>132538.6586435483</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29143,7 +29287,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29176,7 +29320,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29209,7 +29353,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29242,7 +29386,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29275,7 +29419,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29308,7 +29452,7 @@
         <v>134356.2307435483</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29341,7 +29485,7 @@
         <v>134356.2307435483</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29374,7 +29518,7 @@
         <v>135348.3456435483</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29407,7 +29551,7 @@
         <v>135348.3456435483</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29440,7 +29584,7 @@
         <v>135598.4872435483</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29473,7 +29617,7 @@
         <v>135598.4872435483</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29506,7 +29650,7 @@
         <v>134941.3993435483</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29539,7 +29683,7 @@
         <v>136379.4460435483</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29572,7 +29716,7 @@
         <v>135070.4476375397</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29605,7 +29749,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29638,7 +29782,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29671,7 +29815,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29704,7 +29848,7 @@
         <v>136239.8558375397</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29737,7 +29881,7 @@
         <v>136241.8558375397</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29770,7 +29914,7 @@
         <v>136039.1012375397</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29803,7 +29947,7 @@
         <v>138310.0709375397</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29836,7 +29980,7 @@
         <v>138310.0709375397</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29869,7 +30013,7 @@
         <v>139063.7233375397</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29902,7 +30046,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29935,7 +30079,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29968,7 +30112,7 @@
         <v>138622.8390375397</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30001,7 +30145,7 @@
         <v>138886.3209375397</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30034,7 +30178,7 @@
         <v>138877.2125375397</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30067,7 +30211,7 @@
         <v>138085.6926375397</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30100,7 +30244,7 @@
         <v>139034.0260375397</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30133,7 +30277,7 @@
         <v>138854.2610375397</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30166,7 +30310,7 @@
         <v>138995.0651375397</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30199,7 +30343,7 @@
         <v>138873.7977375397</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30232,7 +30376,7 @@
         <v>138777.3317375397</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30265,7 +30409,7 @@
         <v>138669.7412375397</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30298,7 +30442,7 @@
         <v>138845.6747375397</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30331,7 +30475,7 @@
         <v>136923.0369375397</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30364,7 +30508,7 @@
         <v>136268.3703375397</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30397,7 +30541,7 @@
         <v>137638.1703375397</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30430,7 +30574,7 @@
         <v>138858.4633375397</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30463,7 +30607,7 @@
         <v>138512.3052375397</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30496,7 +30640,7 @@
         <v>138491.1806375397</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30529,7 +30673,7 @@
         <v>138184.3806375397</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30562,7 +30706,7 @@
         <v>138619.8167375397</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30595,7 +30739,7 @@
         <v>138619.8167375397</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30628,7 +30772,7 @@
         <v>140952.5391086301</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30661,7 +30805,7 @@
         <v>140952.5391086301</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30694,7 +30838,7 @@
         <v>140038.4200086301</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30727,7 +30871,7 @@
         <v>139380.7865086301</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30760,7 +30904,7 @@
         <v>139809.1225086301</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30826,7 +30970,7 @@
         <v>136160.0433086301</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30859,7 +31003,7 @@
         <v>136597.6665086301</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30892,7 +31036,7 @@
         <v>144838.7887086301</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30925,7 +31069,7 @@
         <v>144010.6648086301</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30958,7 +31102,7 @@
         <v>144011.6648086301</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31090,7 +31234,7 @@
         <v>145706.7008086301</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31222,7 +31366,7 @@
         <v>144225.510442168</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31255,7 +31399,7 @@
         <v>144105.849942168</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31288,7 +31432,7 @@
         <v>144094.666842168</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31321,7 +31465,7 @@
         <v>143707.104642168</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31354,7 +31498,7 @@
         <v>143707.354642168</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31387,7 +31531,7 @@
         <v>143410.012042168</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31420,7 +31564,7 @@
         <v>141506.590542168</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31453,7 +31597,7 @@
         <v>141506.590542168</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31486,7 +31630,7 @@
         <v>141506.590542168</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31519,7 +31663,7 @@
         <v>141506.590542168</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31552,7 +31696,7 @@
         <v>141878.949642168</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31585,7 +31729,7 @@
         <v>141878.949642168</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31618,7 +31762,7 @@
         <v>143436.737342168</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31651,7 +31795,7 @@
         <v>141615.568942168</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31684,7 +31828,7 @@
         <v>141619.595542168</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31717,7 +31861,7 @@
         <v>141610.595542168</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31750,7 +31894,7 @@
         <v>145444.827042168</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31783,7 +31927,7 @@
         <v>145445.827042168</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31816,7 +31960,7 @@
         <v>145440.827042168</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31849,7 +31993,7 @@
         <v>145621.680942168</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32047,7 +32191,7 @@
         <v>139642.926042168</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32278,7 +32422,7 @@
         <v>139125.7936655799</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32311,7 +32455,7 @@
         <v>135802.5986655799</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32344,7 +32488,7 @@
         <v>135839.0285655799</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32377,7 +32521,7 @@
         <v>132110.4317655799</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32410,7 +32554,7 @@
         <v>132046.6143655799</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32443,7 +32587,7 @@
         <v>132046.6143655799</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32476,7 +32620,7 @@
         <v>132007.1097655799</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32509,7 +32653,7 @@
         <v>132007.1097655799</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32542,7 +32686,7 @@
         <v>132070.3355655799</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32575,7 +32719,7 @@
         <v>130926.0772655799</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32608,7 +32752,7 @@
         <v>130667.4375655799</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32641,7 +32785,7 @@
         <v>130679.4375655799</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32674,7 +32818,7 @@
         <v>131179.4375655799</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32707,7 +32851,7 @@
         <v>130871.3112655799</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32740,7 +32884,7 @@
         <v>130871.3112655799</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32773,7 +32917,7 @@
         <v>130967.2275655799</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33268,7 +33412,7 @@
         <v>130191.5366745948</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33301,7 +33445,7 @@
         <v>130891.7118745948</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33334,7 +33478,7 @@
         <v>130891.7118745948</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33367,7 +33511,7 @@
         <v>130891.7118745948</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34357,7 +34501,7 @@
         <v>133393.9044086113</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34588,7 +34732,7 @@
         <v>131914.5774535367</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34621,7 +34765,7 @@
         <v>131414.5774535367</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34654,7 +34798,7 @@
         <v>131414.5774535367</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34687,7 +34831,7 @@
         <v>131415.5774535367</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34753,7 +34897,7 @@
         <v>131473.7165535367</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34786,7 +34930,7 @@
         <v>131473.7165535367</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34819,7 +34963,7 @@
         <v>131305.7513535367</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34852,7 +34996,7 @@
         <v>129499.5234535367</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34885,7 +35029,7 @@
         <v>128807.9428535367</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34918,7 +35062,7 @@
         <v>128749.8037535367</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34951,7 +35095,7 @@
         <v>127374.4993535367</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34984,7 +35128,7 @@
         <v>125995.6060535367</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35017,7 +35161,7 @@
         <v>125796.6605535367</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35050,7 +35194,7 @@
         <v>125731.3778535367</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35116,7 +35260,7 @@
         <v>123871.2588535368</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35149,7 +35293,7 @@
         <v>124982.3537535368</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35182,7 +35326,7 @@
         <v>126879.6133535368</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35259,6 +35403,6 @@
       <c r="M997" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LINK.xlsx
+++ b/BackTest/2020-01-16 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>82481.65204237806</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>81041.64734237806</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>78948.90874237806</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>78343.97883294054</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,11 +583,17 @@
         <v>77479.88703294055</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2628</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +622,17 @@
         <v>71080.72743294055</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2613</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,17 @@
         <v>76162.43843294054</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2550</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +700,17 @@
         <v>74082.21723294054</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2576</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +739,17 @@
         <v>69516.38783294054</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2563</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +778,17 @@
         <v>70311.40533294054</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2553</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +817,17 @@
         <v>72350.44453294054</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2561</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,17 @@
         <v>73371.14203294054</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2568</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +895,17 @@
         <v>70889.41133294054</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2581</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +934,17 @@
         <v>70889.41133294054</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2570</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +973,17 @@
         <v>72738.51013294054</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2570</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1016,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1053,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1090,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1127,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1164,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1201,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1238,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1275,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1312,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1349,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1386,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1423,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1460,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1497,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1534,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1571,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1608,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1645,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1682,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1719,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1756,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1793,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1830,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1867,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1904,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1941,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1978,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2015,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2052,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2089,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2126,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2163,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2200,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2237,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2274,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2311,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2348,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2385,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2422,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2459,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2496,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2533,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2570,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2607,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2644,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2681,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2718,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2755,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2792,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2829,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2866,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2903,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2940,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2977,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3014,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3051,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3088,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3125,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3162,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3199,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3236,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3273,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3310,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3347,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3384,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3421,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3458,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3495,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3532,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3569,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3606,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3643,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3680,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3717,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3754,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3791,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3828,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3865,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3902,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3939,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3976,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4013,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4050,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4087,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4124,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4161,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4198,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4235,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4272,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4309,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4346,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4383,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4420,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4457,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4494,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4531,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4568,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4605,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4642,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4679,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4716,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4753,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4790,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4827,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4864,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4901,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4938,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4975,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5012,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5049,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5086,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5123,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5160,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5197,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5234,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5271,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5308,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5345,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5382,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5419,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5456,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5493,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5530,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5567,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5604,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5641,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5678,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5715,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5752,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5789,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5826,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5863,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5900,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5937,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5974,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6011,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6048,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6085,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6122,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6159,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6196,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6233,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6270,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6307,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6344,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6381,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6418,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6455,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6492,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6529,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6566,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6603,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6640,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6677,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6714,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6751,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6788,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6825,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6862,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6899,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6936,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6973,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +7010,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +7047,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +7084,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +7121,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7158,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7195,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7232,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7269,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7306,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7343,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7380,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7413,17 @@
         <v>70090.99770408738</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2597</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7452,17 @@
         <v>69982.91010408738</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2597</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7491,17 @@
         <v>70103.94270408739</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2595</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7530,17 @@
         <v>70060.37200408739</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2604</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7569,17 @@
         <v>70060.0817040874</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2592</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7608,17 @@
         <v>70060.0817040874</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2587</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7647,17 @@
         <v>70704.01600408739</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2587</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7686,17 @@
         <v>70272.09570408739</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2614</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7725,17 @@
         <v>70292.98710408738</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2599</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7764,17 @@
         <v>70211.13400408739</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2602</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7803,17 @@
         <v>70211.13400408739</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2599</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7846,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7879,17 @@
         <v>69920.2285040874</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2603</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7922,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7955,17 @@
         <v>69935.23300408739</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2604</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7998,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +8031,17 @@
         <v>68935.23300408739</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2604</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +8070,17 @@
         <v>69759.7870040874</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2600</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +8109,17 @@
         <v>70739.01030408739</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2605</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +8148,17 @@
         <v>70779.81500408739</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2606</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +8187,17 @@
         <v>70555.78540408739</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2615</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +8226,17 @@
         <v>70630.78540408739</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2606</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +8269,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +8302,17 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2615</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +8341,17 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>2618</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +8380,17 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2618</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8419,17 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>2618</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +8458,17 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2618</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +8497,17 @@
         <v>74169.9834040874</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2618</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +8536,17 @@
         <v>74169.9834040874</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2633</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8579,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8616,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8653,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8690,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8727,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8764,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8801,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8838,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8875,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8912,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8949,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8986,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +9023,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +9060,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +9097,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +9134,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +9171,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +9208,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +9245,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +9282,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +9319,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +9356,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +9393,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +9430,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +9467,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +9504,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9541,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9578,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9615,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9652,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9689,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9726,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9763,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9800,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9837,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9874,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9911,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9948,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9985,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +10022,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +10059,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +10096,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +10133,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +10170,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +10207,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +10244,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +10281,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +10318,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +10355,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +10392,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +10429,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10466,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10503,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10540,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +10577,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +10614,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10651,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10688,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10725,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10762,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10799,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10836,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10873,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10910,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10947,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10984,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +11021,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +11058,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +11095,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +11132,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +11169,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +11206,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +11243,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +11280,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +11317,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +11354,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +11391,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +11428,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11465,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11502,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +11539,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +11576,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +11613,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11650,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11687,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11724,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11761,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11798,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11835,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11872,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11909,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11946,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11983,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +12020,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +12057,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +12094,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +12131,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +12168,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +12205,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +12242,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +12279,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +12316,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +12353,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +12390,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +12427,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +12464,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +12501,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +12538,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +12575,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +12612,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +12649,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +12686,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +12723,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12760,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +12797,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +12834,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +12871,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12908,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12945,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12982,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +13019,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +13056,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +13093,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +13126,17 @@
         <v>67039.45365378686</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2638</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +13165,17 @@
         <v>67923.44565378685</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2633</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +13204,17 @@
         <v>65159.09725378685</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2637</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +13243,17 @@
         <v>63490.02705378685</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2636</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +13282,17 @@
         <v>60704.05985378685</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2627</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +13321,17 @@
         <v>58980.24895378685</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>2624</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +13360,17 @@
         <v>58828.81555378685</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2623</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +13399,17 @@
         <v>58828.81555378685</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2622</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +13438,17 @@
         <v>57520.70825378685</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2622</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +13477,17 @@
         <v>57338.98075378685</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2620</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +13516,17 @@
         <v>55738.70958363418</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2618</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +13555,17 @@
         <v>52980.94228363418</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>2616</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +13594,17 @@
         <v>50830.29398363418</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>2613</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +13633,17 @@
         <v>49996.46468363418</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>2602</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12174,7 +13680,7 @@
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L357" t="n">
@@ -12556,9 +14062,11 @@
         <v>56209.75978363417</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>2624</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12593,9 +14101,11 @@
         <v>54409.76298363417</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>2620</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12630,9 +14140,11 @@
         <v>54409.76298363417</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>2618</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12667,9 +14179,11 @@
         <v>69113.97128363416</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>2618</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12704,9 +14218,11 @@
         <v>73136.86068363416</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2621</v>
+      </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12741,9 +14257,11 @@
         <v>72634.06218363416</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2624</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12778,9 +14296,11 @@
         <v>74002.30288363415</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2621</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12815,9 +14335,11 @@
         <v>83507.04598363416</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2624</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -12852,9 +14374,11 @@
         <v>83507.04598363416</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2633</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -12889,9 +14413,11 @@
         <v>83507.04598363416</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2633</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -12926,9 +14452,11 @@
         <v>82817.30848363416</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2633</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -12963,9 +14491,11 @@
         <v>84555.15288363416</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2631</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13000,9 +14530,11 @@
         <v>127504.1681836342</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2638</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13888,16 +15420,18 @@
         <v>150681.9206745131</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L403" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
       <c r="M403" t="inlineStr"/>
     </row>
     <row r="404">
@@ -13923,11 +15457,15 @@
         <v>152197.2065745131</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13956,11 +15494,15 @@
         <v>152197.2065745131</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13989,11 +15531,15 @@
         <v>152566.3261745131</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14022,11 +15568,15 @@
         <v>156580.6624745131</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14055,11 +15605,15 @@
         <v>156580.6624745131</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14088,11 +15642,15 @@
         <v>161804.344374513</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14121,11 +15679,15 @@
         <v>162712.1226334836</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14154,11 +15716,15 @@
         <v>162712.1226334836</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14187,11 +15753,15 @@
         <v>162311.8600694601</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14220,11 +15790,15 @@
         <v>158828.6159694601</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14253,11 +15827,15 @@
         <v>157222.5375136333</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14290,7 +15868,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14323,7 +15905,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14356,7 +15942,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14389,7 +15979,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14422,7 +16016,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14455,7 +16053,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14488,7 +16090,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14521,7 +16127,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14554,7 +16164,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14587,7 +16201,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14620,7 +16238,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14653,7 +16275,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14686,7 +16312,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14719,7 +16349,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14752,7 +16386,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14785,7 +16423,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14818,7 +16460,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14851,7 +16497,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14884,7 +16534,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14917,7 +16571,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14950,7 +16608,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +16645,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15016,7 +16682,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15049,7 +16719,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15082,7 +16756,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15115,7 +16793,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15148,7 +16830,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15181,7 +16867,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15214,7 +16904,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15247,7 +16941,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15280,7 +16978,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15313,7 +17015,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15346,7 +17052,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15379,7 +17089,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15412,7 +17126,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15445,7 +17163,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15478,7 +17200,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15511,7 +17237,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15544,7 +17274,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15577,7 +17311,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15610,7 +17348,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15643,7 +17385,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15676,7 +17422,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15709,7 +17459,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15742,7 +17496,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15775,7 +17533,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15808,7 +17570,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15841,7 +17607,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15874,7 +17644,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15907,7 +17681,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15940,7 +17718,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15973,7 +17755,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16006,7 +17792,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16039,7 +17829,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16072,7 +17866,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16105,7 +17903,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16138,7 +17940,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16171,7 +17977,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16204,7 +18014,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16237,7 +18051,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16270,7 +18088,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16303,7 +18125,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16336,7 +18162,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16369,7 +18199,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16402,7 +18236,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16435,7 +18273,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16468,7 +18310,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16501,7 +18347,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16534,7 +18384,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16567,7 +18421,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16600,7 +18458,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16633,7 +18495,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16666,7 +18532,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16699,7 +18569,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16732,7 +18606,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16765,7 +18643,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16798,7 +18680,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16831,7 +18717,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16864,7 +18754,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16897,7 +18791,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16930,7 +18828,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16963,7 +18865,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16996,7 +18902,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17029,7 +18939,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17062,7 +18976,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17095,7 +19013,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17128,7 +19050,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17161,7 +19087,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17194,7 +19124,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17227,7 +19161,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17260,7 +19198,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17293,7 +19235,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17326,7 +19272,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17359,7 +19309,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17392,7 +19346,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17425,7 +19383,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17458,7 +19420,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17491,7 +19457,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17524,7 +19494,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17557,7 +19531,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17590,7 +19568,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17623,7 +19605,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17656,7 +19642,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17689,7 +19679,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17722,7 +19716,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17755,7 +19753,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17788,7 +19790,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17821,7 +19827,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17854,7 +19864,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17887,7 +19901,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17920,7 +19938,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17953,7 +19975,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17986,7 +20012,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18015,14 +20045,16 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="inlineStr"/>
     </row>
     <row r="529">
@@ -18048,7 +20080,7 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18081,7 +20113,7 @@
         <v>167084.3661762919</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18114,7 +20146,7 @@
         <v>161979.7554762919</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18147,7 +20179,7 @@
         <v>161822.7898762919</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18180,7 +20212,7 @@
         <v>162083.1910762919</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18213,7 +20245,7 @@
         <v>162083.1910762919</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18246,7 +20278,7 @@
         <v>160686.3933762919</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18279,7 +20311,7 @@
         <v>160319.0779762919</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18312,7 +20344,7 @@
         <v>160492.5450762919</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18345,7 +20377,7 @@
         <v>159522.6946762919</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18378,7 +20410,7 @@
         <v>155211.5590620062</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18411,7 +20443,7 @@
         <v>158258.9153620062</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18444,7 +20476,7 @@
         <v>158258.9153620062</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18477,7 +20509,7 @@
         <v>158309.9153620062</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18510,7 +20542,7 @@
         <v>153585.5832620062</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18543,7 +20575,7 @@
         <v>151320.6996620062</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18576,7 +20608,7 @@
         <v>151320.6996620062</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18609,7 +20641,7 @@
         <v>152084.0976620062</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18642,7 +20674,7 @@
         <v>152261.2142046913</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18675,7 +20707,7 @@
         <v>152470.3351046913</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18708,7 +20740,7 @@
         <v>152148.1908046913</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18741,7 +20773,7 @@
         <v>153971.6078046912</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18774,7 +20806,7 @@
         <v>153971.6078046912</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18807,7 +20839,7 @@
         <v>156093.5374046912</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18840,7 +20872,7 @@
         <v>158912.068639552</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18873,7 +20905,7 @@
         <v>152038.694439552</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18906,7 +20938,7 @@
         <v>153355.294439552</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18939,7 +20971,7 @@
         <v>153355.294439552</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18972,7 +21004,7 @@
         <v>152356.516439552</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19005,7 +21037,7 @@
         <v>158754.587284619</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19038,7 +21070,7 @@
         <v>154861.0913956126</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19071,7 +21103,7 @@
         <v>150242.0020956126</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19104,7 +21136,7 @@
         <v>150932.2996956126</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19137,7 +21169,7 @@
         <v>152053.2183219247</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19170,7 +21202,7 @@
         <v>151228.9178219247</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19203,7 +21235,7 @@
         <v>146599.8326219247</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19236,7 +21268,7 @@
         <v>146105.9490219247</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19269,7 +21301,7 @@
         <v>123017.2862219247</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19302,7 +21334,7 @@
         <v>122166.4772219247</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -26133,7 +28165,7 @@
         <v>119151.4206119192</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26166,7 +28198,7 @@
         <v>119151.4206119192</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26199,7 +28231,7 @@
         <v>119148.3413119192</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26232,7 +28264,7 @@
         <v>119119.1027119192</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26265,7 +28297,7 @@
         <v>119141.2932119192</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26298,7 +28330,7 @@
         <v>119140.2928518184</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27156,7 +29188,7 @@
         <v>132021.3451435483</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27189,7 +29221,7 @@
         <v>131639.9936435483</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27222,7 +29254,7 @@
         <v>131625.2476435483</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27420,7 +29452,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27486,7 +29518,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27519,7 +29551,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27552,7 +29584,7 @@
         <v>134356.2307435483</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27618,7 +29650,7 @@
         <v>135348.3456435483</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27651,7 +29683,7 @@
         <v>135348.3456435483</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27684,7 +29716,7 @@
         <v>135598.4872435483</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27717,7 +29749,7 @@
         <v>135598.4872435483</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27750,7 +29782,7 @@
         <v>134941.3993435483</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27783,7 +29815,7 @@
         <v>136379.4460435483</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27816,7 +29848,7 @@
         <v>135070.4476375397</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27849,7 +29881,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27882,7 +29914,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27915,7 +29947,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27948,7 +29980,7 @@
         <v>136239.8558375397</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27981,7 +30013,7 @@
         <v>136241.8558375397</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28014,7 +30046,7 @@
         <v>136039.1012375397</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28047,7 +30079,7 @@
         <v>138310.0709375397</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28080,7 +30112,7 @@
         <v>138310.0709375397</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28113,7 +30145,7 @@
         <v>139063.7233375397</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28146,7 +30178,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28179,7 +30211,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28212,7 +30244,7 @@
         <v>138622.8390375397</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28245,7 +30277,7 @@
         <v>138886.3209375397</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28278,7 +30310,7 @@
         <v>138877.2125375397</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28311,7 +30343,7 @@
         <v>138085.6926375397</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28344,7 +30376,7 @@
         <v>139034.0260375397</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28377,7 +30409,7 @@
         <v>138854.2610375397</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28410,7 +30442,7 @@
         <v>138995.0651375397</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28443,7 +30475,7 @@
         <v>138873.7977375397</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28476,7 +30508,7 @@
         <v>138777.3317375397</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28509,7 +30541,7 @@
         <v>138669.7412375397</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28707,7 +30739,7 @@
         <v>138512.3052375397</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28740,7 +30772,7 @@
         <v>138491.1806375397</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28773,7 +30805,7 @@
         <v>138184.3806375397</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28806,7 +30838,7 @@
         <v>138619.8167375397</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28872,7 +30904,7 @@
         <v>140952.5391086301</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28938,7 +30970,7 @@
         <v>140038.4200086301</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
